--- a/Code/Results/Cases/Case_4_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04401837071505</v>
+        <v>12.92400781198218</v>
       </c>
       <c r="C2">
-        <v>16.14472878938339</v>
+        <v>9.209067715088828</v>
       </c>
       <c r="D2">
-        <v>7.229583959249999</v>
+        <v>5.972409321078159</v>
       </c>
       <c r="E2">
-        <v>11.12359500454384</v>
+        <v>11.1291814565961</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.057273250794005</v>
+        <v>3.614323427774079</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.90614981417532</v>
+        <v>18.8760028232632</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.39081974402266</v>
+        <v>14.95109763546927</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.58533953760817</v>
+        <v>20.62448068331636</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67996462055458</v>
+        <v>12.28872745133855</v>
       </c>
       <c r="C3">
-        <v>15.12242805689041</v>
+        <v>8.642616897221853</v>
       </c>
       <c r="D3">
-        <v>6.723939002798036</v>
+        <v>5.851603696232399</v>
       </c>
       <c r="E3">
-        <v>10.5480083691591</v>
+        <v>11.04978727977199</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.064201552038775</v>
+        <v>3.616856179701941</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.056108488431</v>
+        <v>18.99947721072358</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.18332872062301</v>
+        <v>14.64557723663231</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.22467295802305</v>
+        <v>20.66638700086532</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.79520745431037</v>
+        <v>11.88213560801137</v>
       </c>
       <c r="C4">
-        <v>14.46066101340055</v>
+        <v>8.273770014285866</v>
       </c>
       <c r="D4">
-        <v>6.396682326596419</v>
+        <v>5.777992244448566</v>
       </c>
       <c r="E4">
-        <v>10.19536215620611</v>
+        <v>11.00556831335975</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.068569788430253</v>
+        <v>3.618492507154332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.16824354194728</v>
+        <v>19.08114008881916</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.40280850261387</v>
+        <v>14.45799390385102</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.02307313876267</v>
+        <v>20.6995217855982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42274427242852</v>
+        <v>11.71248220766868</v>
       </c>
       <c r="C5">
-        <v>14.18240579308129</v>
+        <v>8.118186301448187</v>
       </c>
       <c r="D5">
-        <v>6.25905701856315</v>
+        <v>5.748183176981053</v>
       </c>
       <c r="E5">
-        <v>10.05201325348959</v>
+        <v>10.98870241118656</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.070379747754264</v>
+        <v>3.619179814108593</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.21862366028793</v>
+        <v>19.1158828446871</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.07484100453151</v>
+        <v>14.38166228376551</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.94583915082684</v>
+        <v>20.71487583321625</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36017628053805</v>
+        <v>11.68407821926929</v>
       </c>
       <c r="C6">
-        <v>14.13568348055995</v>
+        <v>8.092033719082727</v>
       </c>
       <c r="D6">
-        <v>6.235945554770351</v>
+        <v>5.743246136516417</v>
       </c>
       <c r="E6">
-        <v>10.02823724104804</v>
+        <v>10.98597189846408</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.070682126200842</v>
+        <v>3.619295180519137</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.22726204074393</v>
+        <v>19.12174012018251</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.01978279768061</v>
+        <v>14.36899733122284</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.9333090864563</v>
+        <v>20.71753685256045</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.79023258580785</v>
+        <v>11.87986337562923</v>
       </c>
       <c r="C7">
-        <v>14.45694311038916</v>
+        <v>8.271693092434564</v>
       </c>
       <c r="D7">
-        <v>6.394843591810872</v>
+        <v>5.777589405220151</v>
       </c>
       <c r="E7">
-        <v>10.19342721679031</v>
+        <v>11.00533616522208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.068594075778433</v>
+        <v>3.618501693359864</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.1689044798533</v>
+        <v>19.08160272054494</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.39842557303913</v>
+        <v>14.45696387852172</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.022011726733</v>
+        <v>20.69972137425093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58346354575063</v>
+        <v>12.70849896101933</v>
       </c>
       <c r="C8">
-        <v>15.79929829046377</v>
+        <v>9.01813061361263</v>
       </c>
       <c r="D8">
-        <v>7.058695124228212</v>
+        <v>5.930666247564038</v>
       </c>
       <c r="E8">
-        <v>10.92506283913191</v>
+        <v>11.10087593151599</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.059639130770462</v>
+        <v>3.615179908197957</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.95346902178694</v>
+        <v>18.91735897274603</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.98255288321222</v>
+        <v>14.84581687633085</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.45682488476464</v>
+        <v>20.63738725629981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72793056397414</v>
+        <v>14.19537575866203</v>
       </c>
       <c r="C9">
-        <v>18.16269609942781</v>
+        <v>10.31454337039585</v>
       </c>
       <c r="D9">
-        <v>8.229361730063008</v>
+        <v>6.233316901555101</v>
       </c>
       <c r="E9">
-        <v>12.36035059526718</v>
+        <v>11.32339132069279</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.042929309827941</v>
+        <v>3.609307048853848</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.70732748273624</v>
+        <v>18.64197477409279</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.78223548802243</v>
+        <v>15.60379449885628</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.46924429714329</v>
+        <v>20.574319628567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.81587093570899</v>
+        <v>15.19610148041843</v>
       </c>
       <c r="C10">
-        <v>19.7380153091871</v>
+        <v>11.16485671810286</v>
       </c>
       <c r="D10">
-        <v>9.012513544311911</v>
+        <v>6.4545756830684</v>
       </c>
       <c r="E10">
-        <v>13.59856194319939</v>
+        <v>11.5070981103753</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.031087346713442</v>
+        <v>3.605378647054978</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.65877906200521</v>
+        <v>18.46851750094643</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.65806242715957</v>
+        <v>16.15196158740562</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.31260447172247</v>
+        <v>20.56455825917545</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.71864916618193</v>
+        <v>15.63029075770203</v>
       </c>
       <c r="C11">
-        <v>20.42056141731243</v>
+        <v>11.5295481698939</v>
       </c>
       <c r="D11">
-        <v>9.352787854520974</v>
+        <v>6.554474854435558</v>
       </c>
       <c r="E11">
-        <v>14.17298541689337</v>
+        <v>11.59475967335311</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.025773994157991</v>
+        <v>3.603674461764753</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.671019429741</v>
+        <v>18.3959641025953</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.47364572721313</v>
+        <v>16.39827419626991</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.71820597430235</v>
+        <v>20.56814224800646</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.05385352243402</v>
+        <v>15.79160637516717</v>
       </c>
       <c r="C12">
-        <v>20.67420847469089</v>
+        <v>11.66447262277477</v>
       </c>
       <c r="D12">
-        <v>9.479404120149853</v>
+        <v>6.592155417966795</v>
       </c>
       <c r="E12">
-        <v>14.38829413755691</v>
+        <v>11.62851524534095</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.023770673691931</v>
+        <v>3.603040974251074</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.68105964832516</v>
+        <v>18.3694112240755</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.77720273804765</v>
+        <v>16.49101701964127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.87498056540511</v>
+        <v>20.5706580653702</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.98195559644473</v>
+        <v>15.75700321416837</v>
       </c>
       <c r="C13">
-        <v>20.61979392310644</v>
+        <v>11.63555539980852</v>
       </c>
       <c r="D13">
-        <v>9.452233579932781</v>
+        <v>6.584047491031018</v>
       </c>
       <c r="E13">
-        <v>14.34201927064458</v>
+        <v>11.6212209392178</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.024201767736025</v>
+        <v>3.603176881104533</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.67864946698581</v>
+        <v>18.37508874890632</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.71205903740219</v>
+        <v>16.47106818323029</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.84107431500476</v>
+        <v>20.57006464724983</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.74635942759816</v>
+        <v>15.64362485361723</v>
       </c>
       <c r="C14">
-        <v>20.44152517374074</v>
+        <v>11.54071210998454</v>
       </c>
       <c r="D14">
-        <v>9.363249147122657</v>
+        <v>6.55757807080027</v>
       </c>
       <c r="E14">
-        <v>14.19074238037844</v>
+        <v>11.59752570860727</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.02560901605599</v>
+        <v>3.603622107237737</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.67173443790574</v>
+        <v>18.39376106674275</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.49872464156403</v>
+        <v>16.40591533951033</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.73103995968724</v>
+        <v>20.56832598264228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.601186194696</v>
+        <v>15.57377128998064</v>
       </c>
       <c r="C15">
-        <v>20.33170553527202</v>
+        <v>11.48220438069958</v>
       </c>
       <c r="D15">
-        <v>9.308453994357373</v>
+        <v>6.541344197963964</v>
       </c>
       <c r="E15">
-        <v>14.09779769255071</v>
+        <v>11.5830837603456</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.026472075234925</v>
+        <v>3.603896362448393</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.66821658134231</v>
+        <v>18.40531864741892</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.36736709868347</v>
+        <v>16.36593564126185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.66405606047014</v>
+        <v>20.5674120068473</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.75593455287299</v>
+        <v>15.16729585993089</v>
       </c>
       <c r="C16">
-        <v>19.6927303680425</v>
+        <v>11.14057850205355</v>
       </c>
       <c r="D16">
-        <v>8.989959224679097</v>
+        <v>6.448028348087803</v>
       </c>
       <c r="E16">
-        <v>13.56070342912026</v>
+        <v>11.50144917379324</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.031435913510443</v>
+        <v>3.605491681421161</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.65870994819254</v>
+        <v>18.47338755400342</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.60401437196515</v>
+        <v>16.13579511826643</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.28654117015611</v>
+        <v>20.56448594468502</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.22542476144015</v>
+        <v>14.91248719798207</v>
       </c>
       <c r="C17">
-        <v>19.29206703305722</v>
+        <v>10.92533914257917</v>
       </c>
       <c r="D17">
-        <v>8.790520491040994</v>
+        <v>6.390559549138374</v>
       </c>
       <c r="E17">
-        <v>13.22709993881849</v>
+        <v>11.45239741466743</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.034498656300951</v>
+        <v>3.606491534888371</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.66200311259363</v>
+        <v>18.51677843200608</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.12615129763062</v>
+        <v>15.99376288658857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.06058612489018</v>
+        <v>20.56474994778901</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.91585532073721</v>
+        <v>14.76395059956845</v>
       </c>
       <c r="C18">
-        <v>19.05840326316123</v>
+        <v>10.799456661368</v>
       </c>
       <c r="D18">
-        <v>8.674300137348338</v>
+        <v>6.35743648598347</v>
       </c>
       <c r="E18">
-        <v>13.03366019447966</v>
+        <v>11.42457114595905</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.036267314874483</v>
+        <v>3.607074427624294</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.66709980899238</v>
+        <v>18.5423332256919</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.84773557855184</v>
+        <v>15.91178763269855</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.93268725160633</v>
+        <v>20.56565689816472</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81027579487487</v>
+        <v>14.71332159700275</v>
       </c>
       <c r="C19">
-        <v>18.97873461654644</v>
+        <v>10.75647723963419</v>
       </c>
       <c r="D19">
-        <v>8.634689066183288</v>
+        <v>6.346211098464999</v>
       </c>
       <c r="E19">
-        <v>12.96789261501708</v>
+        <v>11.41521695995491</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.036867416835142</v>
+        <v>3.607273127339825</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.66936121235218</v>
+        <v>18.55108802277895</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.75285307200188</v>
+        <v>15.88398665713818</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.88973683346439</v>
+        <v>20.56609349990534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28235662949333</v>
+        <v>14.93981726457998</v>
       </c>
       <c r="C20">
-        <v>19.33505028761939</v>
+        <v>10.94846724324787</v>
       </c>
       <c r="D20">
-        <v>8.811906780732413</v>
+        <v>6.39668459684184</v>
       </c>
       <c r="E20">
-        <v>13.26277299835692</v>
+        <v>11.45757920584186</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.034171905347467</v>
+        <v>3.606384291624591</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.66131769712557</v>
+        <v>18.51209750196388</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.1773882721094</v>
+        <v>16.00891233481918</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.08442560335212</v>
+        <v>20.56464365537295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.81573954022176</v>
+        <v>15.67701156190043</v>
       </c>
       <c r="C21">
-        <v>20.49401709041282</v>
+        <v>11.56865604028367</v>
       </c>
       <c r="D21">
-        <v>9.389446274294846</v>
+        <v>6.565357141471956</v>
       </c>
       <c r="E21">
-        <v>14.23523478540919</v>
+        <v>11.60447060675373</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.025195451825263</v>
+        <v>3.603491012430038</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.67361512732525</v>
+        <v>18.38825148067732</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.56152841189406</v>
+        <v>16.4250674069672</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.7632731045301</v>
+        <v>20.56880519440427</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.77914160878232</v>
+        <v>16.14070151663196</v>
       </c>
       <c r="C22">
-        <v>21.22342967989901</v>
+        <v>11.95547489536272</v>
       </c>
       <c r="D22">
-        <v>9.753886787313103</v>
+        <v>6.67470812430246</v>
       </c>
       <c r="E22">
-        <v>14.85798449772851</v>
+        <v>11.70372281594868</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.019378717837737</v>
+        <v>3.601669130795175</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.7133719591065</v>
+        <v>18.31268604130762</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.43540518699687</v>
+        <v>16.69391860569376</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.22550720550204</v>
+        <v>20.57827967745851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26846398512826</v>
+        <v>15.89490002051421</v>
       </c>
       <c r="C23">
-        <v>20.83666421635991</v>
+        <v>11.75071408203348</v>
       </c>
       <c r="D23">
-        <v>9.560547794957909</v>
+        <v>6.616439438322121</v>
       </c>
       <c r="E23">
-        <v>14.52672630183828</v>
+        <v>11.65046241010038</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.022479312917399</v>
+        <v>3.602635207302772</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.68909640644231</v>
+        <v>18.35252225951848</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.97176301386867</v>
+        <v>16.5507428967456</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.97709392142241</v>
+        <v>20.57260369876723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25663198148522</v>
+        <v>14.92746770126034</v>
       </c>
       <c r="C24">
-        <v>19.31562789623289</v>
+        <v>10.93801769035694</v>
       </c>
       <c r="D24">
-        <v>8.802242903882448</v>
+        <v>6.39391571971069</v>
       </c>
       <c r="E24">
-        <v>13.24665034843331</v>
+        <v>11.45523535019036</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.034319604874024</v>
+        <v>3.606432751180092</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.6616176311596</v>
+        <v>18.51421185455625</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.15423552703613</v>
+        <v>16.00206425595769</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.07364152958832</v>
+        <v>20.56468935814307</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.91667469678669</v>
+        <v>13.8087812832163</v>
       </c>
       <c r="C25">
-        <v>17.55187521339673</v>
+        <v>9.981775115710084</v>
       </c>
       <c r="D25">
-        <v>7.926403658050438</v>
+        <v>6.151452347207816</v>
       </c>
       <c r="E25">
-        <v>11.9726380790353</v>
+        <v>11.25954676489991</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.047366931780399</v>
+        <v>3.610827637337112</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.75254213565192</v>
+        <v>18.7114334889119</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.05712768475635</v>
+        <v>15.39985918335429</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.17799200607381</v>
+        <v>20.58499004382831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.92400781198218</v>
+        <v>21.04401837071507</v>
       </c>
       <c r="C2">
-        <v>9.209067715088828</v>
+        <v>16.14472878938327</v>
       </c>
       <c r="D2">
-        <v>5.972409321078159</v>
+        <v>7.229583959250049</v>
       </c>
       <c r="E2">
-        <v>11.1291814565961</v>
+        <v>11.12359500454385</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.614323427774079</v>
+        <v>2.057273250794005</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.8760028232632</v>
+        <v>11.90614981417532</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.95109763546927</v>
+        <v>18.39081974402268</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.62448068331636</v>
+        <v>15.5853395376082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.28872745133855</v>
+        <v>19.67996462055458</v>
       </c>
       <c r="C3">
-        <v>8.642616897221853</v>
+        <v>15.12242805689034</v>
       </c>
       <c r="D3">
-        <v>5.851603696232399</v>
+        <v>6.723939002797966</v>
       </c>
       <c r="E3">
-        <v>11.04978727977199</v>
+        <v>10.54800836915909</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.616856179701941</v>
+        <v>2.064201552038641</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.99947721072358</v>
+        <v>12.05610848843106</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.64557723663231</v>
+        <v>17.18332872062301</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.66638700086532</v>
+        <v>15.22467295802314</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88213560801137</v>
+        <v>18.79520745431033</v>
       </c>
       <c r="C4">
-        <v>8.273770014285866</v>
+        <v>14.46066101340051</v>
       </c>
       <c r="D4">
-        <v>5.777992244448566</v>
+        <v>6.396682326596414</v>
       </c>
       <c r="E4">
-        <v>11.00556831335975</v>
+        <v>10.19536215620606</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.618492507154332</v>
+        <v>2.068569788429985</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.08114008881916</v>
+        <v>12.16824354194739</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.45799390385102</v>
+        <v>16.40280850261387</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.6995217855982</v>
+        <v>15.02307313876277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.71248220766868</v>
+        <v>18.42274427242852</v>
       </c>
       <c r="C5">
-        <v>8.118186301448187</v>
+        <v>14.18240579308103</v>
       </c>
       <c r="D5">
-        <v>5.748183176981053</v>
+        <v>6.259057018563128</v>
       </c>
       <c r="E5">
-        <v>10.98870241118656</v>
+        <v>10.05201325348958</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.619179814108593</v>
+        <v>2.070379747754532</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.1158828446871</v>
+        <v>12.21862366028804</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.38166228376551</v>
+        <v>16.07484100453146</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.71487583321625</v>
+        <v>14.94583915082699</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.68407821926929</v>
+        <v>18.360176280538</v>
       </c>
       <c r="C6">
-        <v>8.092033719082727</v>
+        <v>14.1356834805598</v>
       </c>
       <c r="D6">
-        <v>5.743246136516417</v>
+        <v>6.235945554770335</v>
       </c>
       <c r="E6">
-        <v>10.98597189846408</v>
+        <v>10.028237241048</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.619295180519137</v>
+        <v>2.070682126200707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.12174012018251</v>
+        <v>12.22726204074415</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.36899733122284</v>
+        <v>16.01978279768056</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.71753685256045</v>
+        <v>14.9333090864565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.87986337562923</v>
+        <v>18.79023258580779</v>
       </c>
       <c r="C7">
-        <v>8.271693092434564</v>
+        <v>14.45694311038912</v>
       </c>
       <c r="D7">
-        <v>5.777589405220151</v>
+        <v>6.394843591810852</v>
       </c>
       <c r="E7">
-        <v>11.00533616522208</v>
+        <v>10.19342721679036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.618501693359864</v>
+        <v>2.068594075778432</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.08160272054494</v>
+        <v>12.16890447985331</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.45696387852172</v>
+        <v>16.39842557303908</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.69972137425093</v>
+        <v>15.02201172673299</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.70849896101933</v>
+        <v>20.58346354575063</v>
       </c>
       <c r="C8">
-        <v>9.01813061361263</v>
+        <v>15.79929829046385</v>
       </c>
       <c r="D8">
-        <v>5.930666247564038</v>
+        <v>7.058695124228234</v>
       </c>
       <c r="E8">
-        <v>11.10087593151599</v>
+        <v>10.92506283913201</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.615179908197957</v>
+        <v>2.059639130770464</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.91735897274603</v>
+        <v>11.95346902178687</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.84581687633085</v>
+        <v>17.98255288321215</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.63738725629981</v>
+        <v>15.45682488476455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.19537575866203</v>
+        <v>23.72793056397413</v>
       </c>
       <c r="C9">
-        <v>10.31454337039585</v>
+        <v>18.16269609942785</v>
       </c>
       <c r="D9">
-        <v>6.233316901555101</v>
+        <v>8.229361730063101</v>
       </c>
       <c r="E9">
-        <v>11.32339132069279</v>
+        <v>12.36035059526717</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.609307048853848</v>
+        <v>2.042929309827809</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.64197477409279</v>
+        <v>11.70732748273622</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.60379449885628</v>
+        <v>20.78223548802239</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.574319628567</v>
+        <v>16.46924429714328</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.19610148041843</v>
+        <v>25.81587093570899</v>
       </c>
       <c r="C10">
-        <v>11.16485671810286</v>
+        <v>19.73801530918706</v>
       </c>
       <c r="D10">
-        <v>6.4545756830684</v>
+        <v>9.012513544311872</v>
       </c>
       <c r="E10">
-        <v>11.5070981103753</v>
+        <v>13.59856194319942</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.605378647054978</v>
+        <v>2.03108734671371</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.46851750094643</v>
+        <v>11.65877906200529</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.15196158740562</v>
+        <v>22.65806242715956</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.56455825917545</v>
+        <v>17.31260447172252</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.63029075770203</v>
+        <v>26.71864916618202</v>
       </c>
       <c r="C11">
-        <v>11.5295481698939</v>
+        <v>20.42056141731235</v>
       </c>
       <c r="D11">
-        <v>6.554474854435558</v>
+        <v>9.352787854520846</v>
       </c>
       <c r="E11">
-        <v>11.59475967335311</v>
+        <v>14.17298541689341</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.603674461764753</v>
+        <v>2.025773994157722</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.3959641025953</v>
+        <v>11.67101942974104</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.39827419626991</v>
+        <v>23.47364572721312</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.56814224800646</v>
+        <v>17.71820597430243</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.79160637516717</v>
+        <v>27.05385352243403</v>
       </c>
       <c r="C12">
-        <v>11.66447262277477</v>
+        <v>20.67420847469088</v>
       </c>
       <c r="D12">
-        <v>6.592155417966795</v>
+        <v>9.479404120149894</v>
       </c>
       <c r="E12">
-        <v>11.62851524534095</v>
+        <v>14.38829413755691</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.603040974251074</v>
+        <v>2.023770673692064</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.3694112240755</v>
+        <v>11.68105964832521</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.49101701964127</v>
+        <v>23.77720273804763</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.5706580653702</v>
+        <v>17.87498056540517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.75700321416837</v>
+        <v>26.9819555964447</v>
       </c>
       <c r="C13">
-        <v>11.63555539980852</v>
+        <v>20.61979392310632</v>
       </c>
       <c r="D13">
-        <v>6.584047491031018</v>
+        <v>9.452233579932763</v>
       </c>
       <c r="E13">
-        <v>11.6212209392178</v>
+        <v>14.34201927064456</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.603176881104533</v>
+        <v>2.024201767736026</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.37508874890632</v>
+        <v>11.67864946698597</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.47106818323029</v>
+        <v>23.71205903740215</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.57006464724983</v>
+        <v>17.84107431500485</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.64362485361723</v>
+        <v>26.74635942759809</v>
       </c>
       <c r="C14">
-        <v>11.54071210998454</v>
+        <v>20.44152517374064</v>
       </c>
       <c r="D14">
-        <v>6.55757807080027</v>
+        <v>9.363249147122602</v>
       </c>
       <c r="E14">
-        <v>11.59752570860727</v>
+        <v>14.19074238037844</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.603622107237737</v>
+        <v>2.025609016056123</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.39376106674275</v>
+        <v>11.67173443790588</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.40591533951033</v>
+        <v>23.49872464156396</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.56832598264228</v>
+        <v>17.73103995968732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.57377128998064</v>
+        <v>26.60118619469606</v>
       </c>
       <c r="C15">
-        <v>11.48220438069958</v>
+        <v>20.331705535272</v>
       </c>
       <c r="D15">
-        <v>6.541344197963964</v>
+        <v>9.308453994357325</v>
       </c>
       <c r="E15">
-        <v>11.5830837603456</v>
+        <v>14.09779769255073</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.603896362448393</v>
+        <v>2.02647207523506</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.40531864741892</v>
+        <v>11.6682165813423</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.36593564126185</v>
+        <v>23.36736709868349</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.5674120068473</v>
+        <v>17.66405606047016</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.16729585993089</v>
+        <v>25.75593455287299</v>
       </c>
       <c r="C16">
-        <v>11.14057850205355</v>
+        <v>19.6927303680425</v>
       </c>
       <c r="D16">
-        <v>6.448028348087803</v>
+        <v>8.98995922467912</v>
       </c>
       <c r="E16">
-        <v>11.50144917379324</v>
+        <v>13.56070342912029</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.605491681421161</v>
+        <v>2.031435913510445</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.47338755400342</v>
+        <v>11.65870994819251</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.13579511826643</v>
+        <v>22.60401437196516</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.56448594468502</v>
+        <v>17.28654117015611</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91248719798207</v>
+        <v>25.22542476144026</v>
       </c>
       <c r="C17">
-        <v>10.92533914257917</v>
+        <v>19.2920670330572</v>
       </c>
       <c r="D17">
-        <v>6.390559549138374</v>
+        <v>8.790520491040994</v>
       </c>
       <c r="E17">
-        <v>11.45239741466743</v>
+        <v>13.22709993881851</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.606491534888371</v>
+        <v>2.034498656300949</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.51677843200608</v>
+        <v>11.66200311259343</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.99376288658857</v>
+        <v>22.12615129763066</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.56474994778901</v>
+        <v>17.0605861248901</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.76395059956845</v>
+        <v>24.91585532073714</v>
       </c>
       <c r="C18">
-        <v>10.799456661368</v>
+        <v>19.05840326316115</v>
       </c>
       <c r="D18">
-        <v>6.35743648598347</v>
+        <v>8.674300137348213</v>
       </c>
       <c r="E18">
-        <v>11.42457114595905</v>
+        <v>13.03366019447967</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.607074427624294</v>
+        <v>2.036267314874618</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.5423332256919</v>
+        <v>11.66709980899249</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.91178763269855</v>
+        <v>21.8477355785518</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.56565689816472</v>
+        <v>16.93268725160641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.71332159700275</v>
+        <v>24.8102757948749</v>
       </c>
       <c r="C19">
-        <v>10.75647723963419</v>
+        <v>18.97873461654634</v>
       </c>
       <c r="D19">
-        <v>6.346211098464999</v>
+        <v>8.634689066183396</v>
       </c>
       <c r="E19">
-        <v>11.41521695995491</v>
+        <v>12.96789261501707</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.607273127339825</v>
+        <v>2.036867416835011</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.55108802277895</v>
+        <v>11.66936121235215</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.88398665713818</v>
+        <v>21.75285307200189</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.56609349990534</v>
+        <v>16.88973683346439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93981726457998</v>
+        <v>25.28235662949328</v>
       </c>
       <c r="C20">
-        <v>10.94846724324787</v>
+        <v>19.33505028761928</v>
       </c>
       <c r="D20">
-        <v>6.39668459684184</v>
+        <v>8.811906780732437</v>
       </c>
       <c r="E20">
-        <v>11.45757920584186</v>
+        <v>13.26277299835692</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.606384291624591</v>
+        <v>2.034171905347466</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.51209750196388</v>
+        <v>11.66131769712573</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.00891233481918</v>
+        <v>22.17738827210938</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.56464365537295</v>
+        <v>17.08442560335221</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.67701156190043</v>
+        <v>26.81573954022175</v>
       </c>
       <c r="C21">
-        <v>11.56865604028367</v>
+        <v>20.49401709041279</v>
       </c>
       <c r="D21">
-        <v>6.565357141471956</v>
+        <v>9.389446274294857</v>
       </c>
       <c r="E21">
-        <v>11.60447060675373</v>
+        <v>14.23523478540919</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.603491012430038</v>
+        <v>2.025195451825264</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.38825148067732</v>
+        <v>11.67361512732519</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.4250674069672</v>
+        <v>23.56152841189407</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.56880519440427</v>
+        <v>17.7632731045301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.14070151663196</v>
+        <v>27.77914160878229</v>
       </c>
       <c r="C22">
-        <v>11.95547489536272</v>
+        <v>21.22342967989894</v>
       </c>
       <c r="D22">
-        <v>6.67470812430246</v>
+        <v>9.753886787313103</v>
       </c>
       <c r="E22">
-        <v>11.70372281594868</v>
+        <v>14.85798449772848</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.601669130795175</v>
+        <v>2.019378717837868</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.31268604130762</v>
+        <v>11.71337195910655</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.69391860569376</v>
+        <v>24.43540518699685</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.57827967745851</v>
+        <v>18.22550720550208</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.89490002051421</v>
+        <v>27.26846398512827</v>
       </c>
       <c r="C23">
-        <v>11.75071408203348</v>
+        <v>20.83666421635975</v>
       </c>
       <c r="D23">
-        <v>6.616439438322121</v>
+        <v>9.560547794957932</v>
       </c>
       <c r="E23">
-        <v>11.65046241010038</v>
+        <v>14.52672630183832</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.602635207302772</v>
+        <v>2.022479312917133</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.35252225951848</v>
+        <v>11.68909640644234</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.5507428967456</v>
+        <v>23.97176301386865</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.57260369876723</v>
+        <v>17.97709392142243</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92746770126034</v>
+        <v>25.25663198148516</v>
       </c>
       <c r="C24">
-        <v>10.93801769035694</v>
+        <v>19.31562789623283</v>
       </c>
       <c r="D24">
-        <v>6.39391571971069</v>
+        <v>8.802242903882476</v>
       </c>
       <c r="E24">
-        <v>11.45523535019036</v>
+        <v>13.24665034843338</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.606432751180092</v>
+        <v>2.034319604873892</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.51421185455625</v>
+        <v>11.6616176311597</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.00206425595769</v>
+        <v>22.15423552703612</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.56468935814307</v>
+        <v>17.0736415295884</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8087812832163</v>
+        <v>22.91667469678663</v>
       </c>
       <c r="C25">
-        <v>9.981775115710084</v>
+        <v>17.55187521339678</v>
       </c>
       <c r="D25">
-        <v>6.151452347207816</v>
+        <v>7.926403658050404</v>
       </c>
       <c r="E25">
-        <v>11.25954676489991</v>
+        <v>11.97263807903528</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.610827637337112</v>
+        <v>2.047366931780664</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.7114334889119</v>
+        <v>11.75254213565207</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.39985918335429</v>
+        <v>20.05712768475632</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.58499004382831</v>
+        <v>16.17799200607386</v>
       </c>
     </row>
   </sheetData>
